--- a/all hangul.xlsx
+++ b/all hangul.xlsx
@@ -5,19 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iansc\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iansc\Documents\ahk layouts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39F5B1D-E29B-4230-93AE-4952D13E2B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBACB9EF-71CD-48C8-B348-CE5F03310572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15750" windowHeight="12855" xr2:uid="{4F364A74-EC32-466A-B7F3-F7E302F7F211}"/>
+    <workbookView xWindow="11205" yWindow="1170" windowWidth="14310" windowHeight="12810" xr2:uid="{4F364A74-EC32-466A-B7F3-F7E302F7F211}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2347,8 +2346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95D2165-524D-4C6F-8EA3-9E0C5C5FB829}">
   <dimension ref="A1:AJ258"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4438,8 +4437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388EE1A7-90B5-47DF-9FBA-59A62DD5CDC5}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="110" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A6" zoomScale="110" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
